--- a/Data/t_test_results.xlsx
+++ b/Data/t_test_results.xlsx
@@ -1487,8 +1487,12 @@
       <c r="F30" t="n">
         <v>0.3558668750771353</v>
       </c>
-      <c r="G30" t="inlineStr"/>
-      <c r="H30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>-1.14473713164009</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.26055311655631</v>
+      </c>
       <c r="I30" t="inlineStr">
         <is>
           <t>No</t>
@@ -1508,7 +1512,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>least_to_most</t>
+          <t>manual_few_shot</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1520,10 +1524,14 @@
         <v>0.3337785584068508</v>
       </c>
       <c r="F31" t="n">
-        <v>0.3498959518962656</v>
-      </c>
-      <c r="G31" t="inlineStr"/>
-      <c r="H31" t="inlineStr"/>
+        <v>0.3487301702745721</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.9872890808083997</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.3292918121132551</v>
+      </c>
       <c r="I31" t="inlineStr">
         <is>
           <t>No</t>
@@ -1543,7 +1551,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>manual_cot</t>
+          <t>self_refine</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1555,10 +1563,14 @@
         <v>0.3337785584068508</v>
       </c>
       <c r="F32" t="n">
-        <v>0.3551923713253787</v>
-      </c>
-      <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr"/>
+        <v>0.351156728855353</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-1.829021014606149</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0.07672940280202731</v>
+      </c>
       <c r="I32" t="inlineStr">
         <is>
           <t>No</t>
@@ -1578,7 +1590,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>manual_few_shot</t>
+          <t>tree_of_thought</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1590,10 +1602,14 @@
         <v>0.3337785584068508</v>
       </c>
       <c r="F33" t="n">
-        <v>0.3487301702745721</v>
-      </c>
-      <c r="G33" t="inlineStr"/>
-      <c r="H33" t="inlineStr"/>
+        <v>0.3478996421926851</v>
+      </c>
+      <c r="G33" t="n">
+        <v>-1.111119966153743</v>
+      </c>
+      <c r="H33" t="n">
+        <v>0.2829354362531543</v>
+      </c>
       <c r="I33" t="inlineStr">
         <is>
           <t>No</t>
@@ -1613,7 +1629,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>self_refine</t>
+          <t>zero_shot_cot</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1625,10 +1641,14 @@
         <v>0.3337785584068508</v>
       </c>
       <c r="F34" t="n">
-        <v>0.351156728855353</v>
-      </c>
-      <c r="G34" t="inlineStr"/>
-      <c r="H34" t="inlineStr"/>
+        <v>0.3441867682123834</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-1.298666300051236</v>
+      </c>
+      <c r="H34" t="n">
+        <v>0.2018843348096545</v>
+      </c>
       <c r="I34" t="inlineStr">
         <is>
           <t>No</t>
@@ -1648,7 +1668,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>tree_of_thought</t>
+          <t>least_to_most</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1660,13 +1680,17 @@
         <v>0.3337785584068508</v>
       </c>
       <c r="F35" t="n">
-        <v>0.3478996421926851</v>
-      </c>
-      <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr"/>
+        <v>0.3498959518962656</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-2.408247956271698</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0.02196460748337448</v>
+      </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1683,7 +1707,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>zero_shot_cot</t>
+          <t>manual_cot</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1695,13 +1719,17 @@
         <v>0.3337785584068508</v>
       </c>
       <c r="F36" t="n">
-        <v>0.3441867682123834</v>
-      </c>
-      <c r="G36" t="inlineStr"/>
-      <c r="H36" t="inlineStr"/>
+        <v>0.3551923713253787</v>
+      </c>
+      <c r="G36" t="n">
+        <v>-2.374394674574453</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.02374316969700669</v>
+      </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -1935,7 +1963,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>ape_zero_shot_cot</t>
+          <t>least_to_most</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -1947,10 +1975,14 @@
         <v>0.367653995409958</v>
       </c>
       <c r="F44" t="n">
-        <v>0.3910591202955087</v>
-      </c>
-      <c r="G44" t="inlineStr"/>
-      <c r="H44" t="inlineStr"/>
+        <v>0.3688316461987508</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.4098421582418101</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0.6877150738021158</v>
+      </c>
       <c r="I44" t="inlineStr">
         <is>
           <t>No</t>
@@ -1970,7 +2002,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>least_to_most</t>
+          <t>manual_cot</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -1982,10 +2014,14 @@
         <v>0.367653995409958</v>
       </c>
       <c r="F45" t="n">
-        <v>0.3688316461987508</v>
-      </c>
-      <c r="G45" t="inlineStr"/>
-      <c r="H45" t="inlineStr"/>
+        <v>0.3506891984872582</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0.2506884562793319</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0.8076843000403842</v>
+      </c>
       <c r="I45" t="inlineStr">
         <is>
           <t>No</t>
@@ -2005,7 +2041,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>manual_cot</t>
+          <t>manual_few_shot</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2017,10 +2053,14 @@
         <v>0.367653995409958</v>
       </c>
       <c r="F46" t="n">
-        <v>0.3506891984872582</v>
-      </c>
-      <c r="G46" t="inlineStr"/>
-      <c r="H46" t="inlineStr"/>
+        <v>0.363439672985659</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-1.099920436908166</v>
+      </c>
+      <c r="H46" t="n">
+        <v>0.2814470372062072</v>
+      </c>
       <c r="I46" t="inlineStr">
         <is>
           <t>No</t>
@@ -2040,7 +2080,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>manual_few_shot</t>
+          <t>self_refine</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2052,10 +2092,14 @@
         <v>0.367653995409958</v>
       </c>
       <c r="F47" t="n">
-        <v>0.363439672985659</v>
-      </c>
-      <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr"/>
+        <v>0.3927645311833518</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-1.881009639850796</v>
+      </c>
+      <c r="H47" t="n">
+        <v>0.07624865825236271</v>
+      </c>
       <c r="I47" t="inlineStr">
         <is>
           <t>No</t>
@@ -2075,7 +2119,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>self_refine</t>
+          <t>tree_of_thought</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2087,10 +2131,14 @@
         <v>0.367653995409958</v>
       </c>
       <c r="F48" t="n">
-        <v>0.3927645311833518</v>
-      </c>
-      <c r="G48" t="inlineStr"/>
-      <c r="H48" t="inlineStr"/>
+        <v>0.3970522049201494</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.178304072906799</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.8876686001034875</v>
+      </c>
       <c r="I48" t="inlineStr">
         <is>
           <t>No</t>
@@ -2110,7 +2158,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>tree_of_thought</t>
+          <t>zero_shot_cot</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2122,10 +2170,14 @@
         <v>0.367653995409958</v>
       </c>
       <c r="F49" t="n">
-        <v>0.3970522049201494</v>
-      </c>
-      <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr"/>
+        <v>0.3859400964114446</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.09440419099120144</v>
+      </c>
+      <c r="H49" t="n">
+        <v>0.9255118747930475</v>
+      </c>
       <c r="I49" t="inlineStr">
         <is>
           <t>No</t>
@@ -2145,7 +2197,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>zero_shot_cot</t>
+          <t>ape_zero_shot_cot</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2157,13 +2209,17 @@
         <v>0.367653995409958</v>
       </c>
       <c r="F50" t="n">
-        <v>0.3859400964114446</v>
-      </c>
-      <c r="G50" t="inlineStr"/>
-      <c r="H50" t="inlineStr"/>
+        <v>0.3910591202955087</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-2.106654550723698</v>
+      </c>
+      <c r="H50" t="n">
+        <v>0.04734782328834347</v>
+      </c>
       <c r="I50" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2528,8 +2584,12 @@
       <c r="F61" t="n">
         <v>0.4471702245404097</v>
       </c>
-      <c r="G61" t="inlineStr"/>
-      <c r="H61" t="inlineStr"/>
+      <c r="G61" t="n">
+        <v>0.380597446300002</v>
+      </c>
+      <c r="H61" t="n">
+        <v>0.7049950980741344</v>
+      </c>
       <c r="I61" t="inlineStr">
         <is>
           <t>No</t>
@@ -2883,7 +2943,7 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>ape_zero_shot_cot</t>
+          <t>self_refine</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
@@ -2895,10 +2955,14 @@
         <v>0.3588432399246042</v>
       </c>
       <c r="F72" t="n">
-        <v>0.4195166577919803</v>
-      </c>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
+        <v>0.3655432912693316</v>
+      </c>
+      <c r="G72" t="n">
+        <v>-0.1770794927771922</v>
+      </c>
+      <c r="H72" t="n">
+        <v>0.859867225764093</v>
+      </c>
       <c r="I72" t="inlineStr">
         <is>
           <t>No</t>
@@ -2918,7 +2982,7 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>least_to_most</t>
+          <t>tree_of_thought</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
@@ -2930,10 +2994,14 @@
         <v>0.3588432399246042</v>
       </c>
       <c r="F73" t="n">
-        <v>0.4795389905014912</v>
-      </c>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
+        <v>0.4301229604135541</v>
+      </c>
+      <c r="G73" t="n">
+        <v>-1.462963211730259</v>
+      </c>
+      <c r="H73" t="n">
+        <v>0.1550220395534408</v>
+      </c>
       <c r="I73" t="inlineStr">
         <is>
           <t>No</t>
@@ -2953,7 +3021,7 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>manual_cot</t>
+          <t>ape_zero_shot_cot</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
@@ -2965,13 +3033,17 @@
         <v>0.3588432399246042</v>
       </c>
       <c r="F74" t="n">
-        <v>0.4786850615266719</v>
-      </c>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
+        <v>0.4195166577919803</v>
+      </c>
+      <c r="G74" t="n">
+        <v>-2.722508804502758</v>
+      </c>
+      <c r="H74" t="n">
+        <v>0.007912598988651227</v>
+      </c>
       <c r="I74" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -2988,7 +3060,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>manual_few_shot</t>
+          <t>least_to_most</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -3000,13 +3072,17 @@
         <v>0.3588432399246042</v>
       </c>
       <c r="F75" t="n">
-        <v>0.4762447813337619</v>
-      </c>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
+        <v>0.4795389905014912</v>
+      </c>
+      <c r="G75" t="n">
+        <v>-5.704818886801226</v>
+      </c>
+      <c r="H75" t="n">
+        <v>1.37328393154626e-07</v>
+      </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3023,7 +3099,7 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>self_refine</t>
+          <t>manual_cot</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
@@ -3035,13 +3111,17 @@
         <v>0.3588432399246042</v>
       </c>
       <c r="F76" t="n">
-        <v>0.3655432912693316</v>
-      </c>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
+        <v>0.4786850615266719</v>
+      </c>
+      <c r="G76" t="n">
+        <v>-5.848788038540913</v>
+      </c>
+      <c r="H76" t="n">
+        <v>7.151516652751101e-08</v>
+      </c>
       <c r="I76" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3058,7 +3138,7 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>tree_of_thought</t>
+          <t>manual_few_shot</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
@@ -3070,13 +3150,17 @@
         <v>0.3588432399246042</v>
       </c>
       <c r="F77" t="n">
-        <v>0.4301229604135541</v>
-      </c>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
+        <v>0.4762447813337619</v>
+      </c>
+      <c r="G77" t="n">
+        <v>-5.402586153841306</v>
+      </c>
+      <c r="H77" t="n">
+        <v>4.852185926605229e-07</v>
+      </c>
       <c r="I77" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3107,11 +3191,15 @@
       <c r="F78" t="n">
         <v>0.4095443677664702</v>
       </c>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
+      <c r="G78" t="n">
+        <v>-2.345575437840131</v>
+      </c>
+      <c r="H78" t="n">
+        <v>0.02150696795521951</v>
+      </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3359,8 +3447,12 @@
       <c r="F86" t="n">
         <v>0.4486177373839107</v>
       </c>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
+      <c r="G86" t="n">
+        <v>-0.5706359002568039</v>
+      </c>
+      <c r="H86" t="n">
+        <v>0.5721119861438464</v>
+      </c>
       <c r="I86" t="inlineStr">
         <is>
           <t>No</t>
@@ -3394,8 +3486,12 @@
       <c r="F87" t="n">
         <v>0.4035677984709117</v>
       </c>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
+      <c r="G87" t="n">
+        <v>-0.04573220039524427</v>
+      </c>
+      <c r="H87" t="n">
+        <v>0.9638079071817984</v>
+      </c>
       <c r="I87" t="inlineStr">
         <is>
           <t>No</t>
@@ -3429,8 +3525,12 @@
       <c r="F88" t="n">
         <v>0.4232227201267702</v>
       </c>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
+      <c r="G88" t="n">
+        <v>-0.5956350360123538</v>
+      </c>
+      <c r="H88" t="n">
+        <v>0.5556087468580261</v>
+      </c>
       <c r="I88" t="inlineStr">
         <is>
           <t>No</t>
@@ -3450,7 +3550,7 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>manual_few_shot</t>
+          <t>self_refine</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
@@ -3462,10 +3562,14 @@
         <v>0.4204354839738638</v>
       </c>
       <c r="F89" t="n">
-        <v>0.3657057845474713</v>
-      </c>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
+        <v>0.3976991678288766</v>
+      </c>
+      <c r="G89" t="n">
+        <v>0.1304041786778109</v>
+      </c>
+      <c r="H89" t="n">
+        <v>0.8970629935145363</v>
+      </c>
       <c r="I89" t="inlineStr">
         <is>
           <t>No</t>
@@ -3485,7 +3589,7 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>self_refine</t>
+          <t>tree_of_thought</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
@@ -3497,10 +3601,14 @@
         <v>0.4204354839738638</v>
       </c>
       <c r="F90" t="n">
-        <v>0.3976991678288766</v>
-      </c>
-      <c r="G90" t="inlineStr"/>
-      <c r="H90" t="inlineStr"/>
+        <v>0.4552911088706001</v>
+      </c>
+      <c r="G90" t="n">
+        <v>1.232568738202675</v>
+      </c>
+      <c r="H90" t="n">
+        <v>0.2355418166853398</v>
+      </c>
       <c r="I90" t="inlineStr">
         <is>
           <t>No</t>
@@ -3520,7 +3628,7 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>tree_of_thought</t>
+          <t>manual_few_shot</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
@@ -3532,13 +3640,17 @@
         <v>0.4204354839738638</v>
       </c>
       <c r="F91" t="n">
-        <v>0.4552911088706001</v>
-      </c>
-      <c r="G91" t="inlineStr"/>
-      <c r="H91" t="inlineStr"/>
+        <v>0.3657057845474713</v>
+      </c>
+      <c r="G91" t="n">
+        <v>2.658636260743372</v>
+      </c>
+      <c r="H91" t="n">
+        <v>0.01113814179210349</v>
+      </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3569,11 +3681,15 @@
       <c r="F92" t="n">
         <v>0.4631258808051564</v>
       </c>
-      <c r="G92" t="inlineStr"/>
-      <c r="H92" t="inlineStr"/>
+      <c r="G92" t="n">
+        <v>-2.51052457717059</v>
+      </c>
+      <c r="H92" t="n">
+        <v>0.01643009978264356</v>
+      </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -3821,8 +3937,12 @@
       <c r="F100" t="n">
         <v>0.3888047487967222</v>
       </c>
-      <c r="G100" t="inlineStr"/>
-      <c r="H100" t="inlineStr"/>
+      <c r="G100" t="n">
+        <v>-0.5398998232920198</v>
+      </c>
+      <c r="H100" t="n">
+        <v>0.5949457001656505</v>
+      </c>
       <c r="I100" t="inlineStr">
         <is>
           <t>No</t>
@@ -3856,8 +3976,12 @@
       <c r="F101" t="n">
         <v>0.4136875478682511</v>
       </c>
-      <c r="G101" t="inlineStr"/>
-      <c r="H101" t="inlineStr"/>
+      <c r="G101" t="n">
+        <v>-0.09070866577678419</v>
+      </c>
+      <c r="H101" t="n">
+        <v>0.9289243014000621</v>
+      </c>
       <c r="I101" t="inlineStr">
         <is>
           <t>No</t>
@@ -3891,8 +4015,12 @@
       <c r="F102" t="n">
         <v>0.4011686078217538</v>
       </c>
-      <c r="G102" t="inlineStr"/>
-      <c r="H102" t="inlineStr"/>
+      <c r="G102" t="n">
+        <v>-0.68775779570202</v>
+      </c>
+      <c r="H102" t="n">
+        <v>0.5089404360165983</v>
+      </c>
       <c r="I102" t="inlineStr">
         <is>
           <t>No</t>
@@ -3912,7 +4040,7 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>manual_few_shot</t>
+          <t>self_refine</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
@@ -3924,10 +4052,14 @@
         <v>0.370674139241628</v>
       </c>
       <c r="F103" t="n">
-        <v>0.433228101589585</v>
-      </c>
-      <c r="G103" t="inlineStr"/>
-      <c r="H103" t="inlineStr"/>
+        <v>0.3403139039125427</v>
+      </c>
+      <c r="G103" t="n">
+        <v>0.6324113498329108</v>
+      </c>
+      <c r="H103" t="n">
+        <v>0.5350696318477244</v>
+      </c>
       <c r="I103" t="inlineStr">
         <is>
           <t>No</t>
@@ -3947,7 +4079,7 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>self_refine</t>
+          <t>tree_of_thought</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
@@ -3959,10 +4091,14 @@
         <v>0.370674139241628</v>
       </c>
       <c r="F104" t="n">
-        <v>0.3403139039125427</v>
-      </c>
-      <c r="G104" t="inlineStr"/>
-      <c r="H104" t="inlineStr"/>
+        <v>0.223879186997216</v>
+      </c>
+      <c r="G104" t="n">
+        <v>1.241549692571777</v>
+      </c>
+      <c r="H104" t="n">
+        <v>0.4316614758653485</v>
+      </c>
       <c r="I104" t="inlineStr">
         <is>
           <t>No</t>
@@ -3982,7 +4118,7 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>tree_of_thought</t>
+          <t>zero_shot_cot</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
@@ -3994,10 +4130,14 @@
         <v>0.370674139241628</v>
       </c>
       <c r="F105" t="n">
-        <v>0.223879186997216</v>
-      </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
+        <v>0.3573737035024921</v>
+      </c>
+      <c r="G105" t="n">
+        <v>1.439058993114993</v>
+      </c>
+      <c r="H105" t="n">
+        <v>0.1620648744709412</v>
+      </c>
       <c r="I105" t="inlineStr">
         <is>
           <t>No</t>
@@ -4017,7 +4157,7 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>zero_shot_cot</t>
+          <t>manual_few_shot</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
@@ -4029,13 +4169,17 @@
         <v>0.370674139241628</v>
       </c>
       <c r="F106" t="n">
-        <v>0.3573737035024921</v>
-      </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
+        <v>0.433228101589585</v>
+      </c>
+      <c r="G106" t="n">
+        <v>-2.928667469841096</v>
+      </c>
+      <c r="H106" t="n">
+        <v>0.006993274462604279</v>
+      </c>
       <c r="I106" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8427,11 +8571,15 @@
       <c r="F226" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G226" t="inlineStr"/>
-      <c r="H226" t="inlineStr"/>
+      <c r="G226" t="n">
+        <v>-29.84962311319859</v>
+      </c>
+      <c r="H226" t="n">
+        <v>2.597549811426689e-10</v>
+      </c>
       <c r="I226" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8462,11 +8610,15 @@
       <c r="F227" t="n">
         <v>7.3</v>
       </c>
-      <c r="G227" t="inlineStr"/>
-      <c r="H227" t="inlineStr"/>
+      <c r="G227" t="n">
+        <v>-26.70571328295164</v>
+      </c>
+      <c r="H227" t="n">
+        <v>7.000859820572747e-10</v>
+      </c>
       <c r="I227" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8497,11 +8649,15 @@
       <c r="F228" t="n">
         <v>3.2</v>
       </c>
-      <c r="G228" t="inlineStr"/>
-      <c r="H228" t="inlineStr"/>
+      <c r="G228" t="n">
+        <v>-2.954195783503986</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.01611071653191161</v>
+      </c>
       <c r="I228" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8532,11 +8688,15 @@
       <c r="F229" t="n">
         <v>4.4</v>
       </c>
-      <c r="G229" t="inlineStr"/>
-      <c r="H229" t="inlineStr"/>
+      <c r="G229" t="n">
+        <v>-11.22497216032182</v>
+      </c>
+      <c r="H229" t="n">
+        <v>1.356959540831356e-06</v>
+      </c>
       <c r="I229" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8567,11 +8727,15 @@
       <c r="F230" t="n">
         <v>4.5</v>
       </c>
-      <c r="G230" t="inlineStr"/>
-      <c r="H230" t="inlineStr"/>
+      <c r="G230" t="n">
+        <v>-9.221981556055331</v>
+      </c>
+      <c r="H230" t="n">
+        <v>6.992072395885232e-06</v>
+      </c>
       <c r="I230" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8602,11 +8766,15 @@
       <c r="F231" t="n">
         <v>4.2</v>
       </c>
-      <c r="G231" t="inlineStr"/>
-      <c r="H231" t="inlineStr"/>
+      <c r="G231" t="n">
+        <v>-11.75894243853278</v>
+      </c>
+      <c r="H231" t="n">
+        <v>9.151111215642479e-07</v>
+      </c>
       <c r="I231" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -8637,11 +8805,15 @@
       <c r="F232" t="n">
         <v>8.199999999999999</v>
       </c>
-      <c r="G232" t="inlineStr"/>
-      <c r="H232" t="inlineStr"/>
+      <c r="G232" t="n">
+        <v>-40.41658075592244</v>
+      </c>
+      <c r="H232" t="n">
+        <v>1.73010492641202e-11</v>
+      </c>
       <c r="I232" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/Data/t_test_results.xlsx
+++ b/Data/t_test_results.xlsx
@@ -9055,15 +9055,21 @@
           <t>ease_of_review_1_easy_10_hard</t>
         </is>
       </c>
-      <c r="E240" t="inlineStr"/>
+      <c r="E240" t="n">
+        <v>1</v>
+      </c>
       <c r="F240" t="n">
         <v>3.5</v>
       </c>
-      <c r="G240" t="inlineStr"/>
-      <c r="H240" t="inlineStr"/>
+      <c r="G240" t="n">
+        <v>-3.846153846153846</v>
+      </c>
+      <c r="H240" t="n">
+        <v>0.004904197655026575</v>
+      </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9088,15 +9094,21 @@
           <t>ease_of_review_1_easy_10_hard</t>
         </is>
       </c>
-      <c r="E241" t="inlineStr"/>
+      <c r="E241" t="n">
+        <v>1</v>
+      </c>
       <c r="F241" t="n">
         <v>3</v>
       </c>
-      <c r="G241" t="inlineStr"/>
-      <c r="H241" t="inlineStr"/>
+      <c r="G241" t="n">
+        <v>-9.429903335828895</v>
+      </c>
+      <c r="H241" t="n">
+        <v>1.313338580619637e-05</v>
+      </c>
       <c r="I241" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9121,15 +9133,21 @@
           <t>ease_of_review_1_easy_10_hard</t>
         </is>
       </c>
-      <c r="E242" t="inlineStr"/>
+      <c r="E242" t="n">
+        <v>1</v>
+      </c>
       <c r="F242" t="n">
         <v>2.3</v>
       </c>
-      <c r="G242" t="inlineStr"/>
-      <c r="H242" t="inlineStr"/>
+      <c r="G242" t="n">
+        <v>-5.65685424949238</v>
+      </c>
+      <c r="H242" t="n">
+        <v>0.0004776140575940057</v>
+      </c>
       <c r="I242" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9154,15 +9172,21 @@
           <t>ease_of_review_1_easy_10_hard</t>
         </is>
       </c>
-      <c r="E243" t="inlineStr"/>
+      <c r="E243" t="n">
+        <v>1</v>
+      </c>
       <c r="F243" t="n">
         <v>2.1</v>
       </c>
-      <c r="G243" t="inlineStr"/>
-      <c r="H243" t="inlineStr"/>
+      <c r="G243" t="n">
+        <v>-3.592106040535498</v>
+      </c>
+      <c r="H243" t="n">
+        <v>0.007062835162484946</v>
+      </c>
       <c r="I243" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9187,15 +9211,21 @@
           <t>ease_of_review_1_easy_10_hard</t>
         </is>
       </c>
-      <c r="E244" t="inlineStr"/>
+      <c r="E244" t="n">
+        <v>1</v>
+      </c>
       <c r="F244" t="n">
         <v>4.1</v>
       </c>
-      <c r="G244" t="inlineStr"/>
-      <c r="H244" t="inlineStr"/>
+      <c r="G244" t="n">
+        <v>-11.93924011591418</v>
+      </c>
+      <c r="H244" t="n">
+        <v>2.228404644292602e-06</v>
+      </c>
       <c r="I244" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9220,15 +9250,21 @@
           <t>ease_of_review_1_easy_10_hard</t>
         </is>
       </c>
-      <c r="E245" t="inlineStr"/>
+      <c r="E245" t="n">
+        <v>1</v>
+      </c>
       <c r="F245" t="n">
         <v>8.5</v>
       </c>
-      <c r="G245" t="inlineStr"/>
-      <c r="H245" t="inlineStr"/>
+      <c r="G245" t="n">
+        <v>-42.37452064625629</v>
+      </c>
+      <c r="H245" t="n">
+        <v>1.060300852257635e-10</v>
+      </c>
       <c r="I245" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -9253,15 +9289,21 @@
           <t>ease_of_review_1_easy_10_hard</t>
         </is>
       </c>
-      <c r="E246" t="inlineStr"/>
+      <c r="E246" t="n">
+        <v>1</v>
+      </c>
       <c r="F246" t="n">
         <v>3.8</v>
       </c>
-      <c r="G246" t="inlineStr"/>
-      <c r="H246" t="inlineStr"/>
+      <c r="G246" t="n">
+        <v>-3.747658444979307</v>
+      </c>
+      <c r="H246" t="n">
+        <v>0.005643117322762277</v>
+      </c>
       <c r="I246" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>

--- a/Data/t_test_results.xlsx
+++ b/Data/t_test_results.xlsx
@@ -16884,16 +16884,20 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="F450" t="n">
-        <v>0</v>
-      </c>
-      <c r="G450" t="inlineStr"/>
-      <c r="H450" t="inlineStr"/>
+        <v>10.77</v>
+      </c>
+      <c r="G450" t="n">
+        <v>-28.83124167177692</v>
+      </c>
+      <c r="H450" t="n">
+        <v>5.826759107556711e-50</v>
+      </c>
       <c r="I450" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -16919,16 +16923,20 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="F451" t="n">
-        <v>0</v>
-      </c>
-      <c r="G451" t="inlineStr"/>
-      <c r="H451" t="inlineStr"/>
+        <v>7.5</v>
+      </c>
+      <c r="G451" t="n">
+        <v>-35.07760175955924</v>
+      </c>
+      <c r="H451" t="n">
+        <v>1.207408057620094e-57</v>
+      </c>
       <c r="I451" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -16954,16 +16962,20 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="F452" t="n">
-        <v>0</v>
-      </c>
-      <c r="G452" t="inlineStr"/>
-      <c r="H452" t="inlineStr"/>
+        <v>3.69</v>
+      </c>
+      <c r="G452" t="n">
+        <v>-6.363129794846619</v>
+      </c>
+      <c r="H452" t="n">
+        <v>6.177619637446933e-09</v>
+      </c>
       <c r="I452" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -16989,16 +17001,20 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="F453" t="n">
-        <v>0</v>
-      </c>
-      <c r="G453" t="inlineStr"/>
-      <c r="H453" t="inlineStr"/>
+        <v>2.01</v>
+      </c>
+      <c r="G453" t="n">
+        <v>2.148395723904016</v>
+      </c>
+      <c r="H453" t="n">
+        <v>0.03412159030060466</v>
+      </c>
       <c r="I453" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -17015,7 +17031,7 @@
       </c>
       <c r="C454" t="inlineStr">
         <is>
-          <t>zero_shot_cot</t>
+          <t>self_refine</t>
         </is>
       </c>
       <c r="D454" t="inlineStr">
@@ -17024,16 +17040,20 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="F454" t="n">
-        <v>0</v>
-      </c>
-      <c r="G454" t="inlineStr"/>
-      <c r="H454" t="inlineStr"/>
+        <v>4.37</v>
+      </c>
+      <c r="G454" t="n">
+        <v>-9.692851718495611</v>
+      </c>
+      <c r="H454" t="n">
+        <v>5.118579912527966e-16</v>
+      </c>
       <c r="I454" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -17050,7 +17070,7 @@
       </c>
       <c r="C455" t="inlineStr">
         <is>
-          <t>self_refine</t>
+          <t>tree_of_thought</t>
         </is>
       </c>
       <c r="D455" t="inlineStr">
@@ -17059,16 +17079,16 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="F455" t="n">
-        <v>1.56</v>
+        <v>18.54</v>
       </c>
       <c r="G455" t="n">
-        <v>-17.28490257834441</v>
+        <v>-31.80941414812338</v>
       </c>
       <c r="H455" t="n">
-        <v>1.164213909357614e-31</v>
+        <v>8.853010573051538e-54</v>
       </c>
       <c r="I455" t="inlineStr">
         <is>
@@ -17089,7 +17109,7 @@
       </c>
       <c r="C456" t="inlineStr">
         <is>
-          <t>tree_of_thought</t>
+          <t>zero_shot_cot</t>
         </is>
       </c>
       <c r="D456" t="inlineStr">
@@ -17098,18 +17118,16 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>0</v>
+        <v>2.08</v>
       </c>
       <c r="F456" t="n">
-        <v>4</v>
-      </c>
-      <c r="G456" t="inlineStr">
-        <is>
-          <t>-inf</t>
-        </is>
+        <v>10.93</v>
+      </c>
+      <c r="G456" t="n">
+        <v>-36.98836236107769</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>9.151685699063212e-60</v>
       </c>
       <c r="I456" t="inlineStr">
         <is>
@@ -17130,7 +17148,7 @@
       </c>
       <c r="C457" t="inlineStr">
         <is>
-          <t>ape_zero_shot_cot</t>
+          <t>manual_cot</t>
         </is>
       </c>
       <c r="D457" t="inlineStr">
@@ -17139,13 +17157,17 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F457" t="n">
-        <v>0</v>
-      </c>
-      <c r="G457" t="inlineStr"/>
-      <c r="H457" t="inlineStr"/>
+        <v>1.17</v>
+      </c>
+      <c r="G457" t="n">
+        <v>0.9039913210172316</v>
+      </c>
+      <c r="H457" t="n">
+        <v>0.3681945108696839</v>
+      </c>
       <c r="I457" t="inlineStr">
         <is>
           <t>No</t>
@@ -17165,7 +17187,7 @@
       </c>
       <c r="C458" t="inlineStr">
         <is>
-          <t>least_to_most</t>
+          <t>ape_zero_shot_cot</t>
         </is>
       </c>
       <c r="D458" t="inlineStr">
@@ -17174,16 +17196,20 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F458" t="n">
-        <v>0</v>
-      </c>
-      <c r="G458" t="inlineStr"/>
-      <c r="H458" t="inlineStr"/>
+        <v>4.64</v>
+      </c>
+      <c r="G458" t="n">
+        <v>-10.49397901206296</v>
+      </c>
+      <c r="H458" t="n">
+        <v>9.172631925799708e-18</v>
+      </c>
       <c r="I458" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -17200,7 +17226,7 @@
       </c>
       <c r="C459" t="inlineStr">
         <is>
-          <t>manual_cot</t>
+          <t>least_to_most</t>
         </is>
       </c>
       <c r="D459" t="inlineStr">
@@ -17209,16 +17235,20 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F459" t="n">
-        <v>0</v>
-      </c>
-      <c r="G459" t="inlineStr"/>
-      <c r="H459" t="inlineStr"/>
+        <v>5.64</v>
+      </c>
+      <c r="G459" t="n">
+        <v>-24.03014668134204</v>
+      </c>
+      <c r="H459" t="n">
+        <v>4.207193365810621e-43</v>
+      </c>
       <c r="I459" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -17244,16 +17274,20 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F460" t="n">
         <v>0</v>
       </c>
-      <c r="G460" t="inlineStr"/>
-      <c r="H460" t="inlineStr"/>
+      <c r="G460" t="n">
+        <v>7.743797601653323</v>
+      </c>
+      <c r="H460" t="n">
+        <v>8.457009230169744e-12</v>
+      </c>
       <c r="I460" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -17270,7 +17304,7 @@
       </c>
       <c r="C461" t="inlineStr">
         <is>
-          <t>zero_shot_cot</t>
+          <t>self_refine</t>
         </is>
       </c>
       <c r="D461" t="inlineStr">
@@ -17279,16 +17313,20 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F461" t="n">
-        <v>0</v>
-      </c>
-      <c r="G461" t="inlineStr"/>
-      <c r="H461" t="inlineStr"/>
+        <v>5.37</v>
+      </c>
+      <c r="G461" t="n">
+        <v>-11.09174311926606</v>
+      </c>
+      <c r="H461" t="n">
+        <v>4.620740408183364e-19</v>
+      </c>
       <c r="I461" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -17305,7 +17343,7 @@
       </c>
       <c r="C462" t="inlineStr">
         <is>
-          <t>self_refine</t>
+          <t>tree_of_thought</t>
         </is>
       </c>
       <c r="D462" t="inlineStr">
@@ -17314,16 +17352,16 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F462" t="n">
-        <v>2.2</v>
+        <v>12.26</v>
       </c>
       <c r="G462" t="n">
-        <v>-22.34110561274889</v>
+        <v>-23.81588001701261</v>
       </c>
       <c r="H462" t="n">
-        <v>1.880219793050742e-40</v>
+        <v>8.971196615459257e-43</v>
       </c>
       <c r="I462" t="inlineStr">
         <is>
@@ -17344,7 +17382,7 @@
       </c>
       <c r="C463" t="inlineStr">
         <is>
-          <t>tree_of_thought</t>
+          <t>zero_shot_cot</t>
         </is>
       </c>
       <c r="D463" t="inlineStr">
@@ -17353,16 +17391,16 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>0</v>
+        <v>1.34</v>
       </c>
       <c r="F463" t="n">
-        <v>5.11</v>
+        <v>3.83</v>
       </c>
       <c r="G463" t="n">
-        <v>-19.88471453556187</v>
+        <v>-7.439660703593491</v>
       </c>
       <c r="H463" t="n">
-        <v>2.38480654894213e-36</v>
+        <v>3.727399370914456e-11</v>
       </c>
       <c r="I463" t="inlineStr">
         <is>
@@ -17964,7 +18002,7 @@
       </c>
       <c r="C479" t="inlineStr">
         <is>
-          <t>least_to_most</t>
+          <t>zero_shot_cot</t>
         </is>
       </c>
       <c r="D479" t="inlineStr">
@@ -17999,7 +18037,7 @@
       </c>
       <c r="C480" t="inlineStr">
         <is>
-          <t>manual_cot</t>
+          <t>least_to_most</t>
         </is>
       </c>
       <c r="D480" t="inlineStr">
@@ -18011,13 +18049,19 @@
         <v>0</v>
       </c>
       <c r="F480" t="n">
+        <v>19</v>
+      </c>
+      <c r="G480" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="H480" t="n">
         <v>0</v>
       </c>
-      <c r="G480" t="inlineStr"/>
-      <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18034,7 +18078,7 @@
       </c>
       <c r="C481" t="inlineStr">
         <is>
-          <t>manual_few_shot</t>
+          <t>manual_cot</t>
         </is>
       </c>
       <c r="D481" t="inlineStr">
@@ -18046,13 +18090,19 @@
         <v>0</v>
       </c>
       <c r="F481" t="n">
+        <v>19</v>
+      </c>
+      <c r="G481" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="H481" t="n">
         <v>0</v>
       </c>
-      <c r="G481" t="inlineStr"/>
-      <c r="H481" t="inlineStr"/>
       <c r="I481" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18069,7 +18119,7 @@
       </c>
       <c r="C482" t="inlineStr">
         <is>
-          <t>zero_shot_cot</t>
+          <t>manual_few_shot</t>
         </is>
       </c>
       <c r="D482" t="inlineStr">
@@ -18081,13 +18131,19 @@
         <v>0</v>
       </c>
       <c r="F482" t="n">
+        <v>9</v>
+      </c>
+      <c r="G482" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="H482" t="n">
         <v>0</v>
       </c>
-      <c r="G482" t="inlineStr"/>
-      <c r="H482" t="inlineStr"/>
       <c r="I482" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18116,13 +18172,13 @@
         <v>0</v>
       </c>
       <c r="F483" t="n">
-        <v>1.56</v>
+        <v>4.12</v>
       </c>
       <c r="G483" t="n">
-        <v>-17.28490257834441</v>
+        <v>-22.8249354560189</v>
       </c>
       <c r="H483" t="n">
-        <v>1.164213909357614e-31</v>
+        <v>3.171891628034546e-41</v>
       </c>
       <c r="I483" t="inlineStr">
         <is>
@@ -18155,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="F484" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G484" t="inlineStr">
         <is>
@@ -18193,16 +18249,22 @@
         </is>
       </c>
       <c r="E485" t="n">
+        <v>1</v>
+      </c>
+      <c r="F485" t="n">
+        <v>2</v>
+      </c>
+      <c r="G485" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="H485" t="n">
         <v>0</v>
       </c>
-      <c r="F485" t="n">
-        <v>0</v>
-      </c>
-      <c r="G485" t="inlineStr"/>
-      <c r="H485" t="inlineStr"/>
       <c r="I485" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18228,16 +18290,22 @@
         </is>
       </c>
       <c r="E486" t="n">
+        <v>1</v>
+      </c>
+      <c r="F486" t="n">
+        <v>5</v>
+      </c>
+      <c r="G486" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="H486" t="n">
         <v>0</v>
       </c>
-      <c r="F486" t="n">
-        <v>0</v>
-      </c>
-      <c r="G486" t="inlineStr"/>
-      <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18263,16 +18331,22 @@
         </is>
       </c>
       <c r="E487" t="n">
+        <v>1</v>
+      </c>
+      <c r="F487" t="n">
+        <v>16</v>
+      </c>
+      <c r="G487" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="H487" t="n">
         <v>0</v>
       </c>
-      <c r="F487" t="n">
-        <v>0</v>
-      </c>
-      <c r="G487" t="inlineStr"/>
-      <c r="H487" t="inlineStr"/>
       <c r="I487" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18298,16 +18372,22 @@
         </is>
       </c>
       <c r="E488" t="n">
+        <v>1</v>
+      </c>
+      <c r="F488" t="n">
+        <v>16</v>
+      </c>
+      <c r="G488" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="H488" t="n">
         <v>0</v>
       </c>
-      <c r="F488" t="n">
-        <v>0</v>
-      </c>
-      <c r="G488" t="inlineStr"/>
-      <c r="H488" t="inlineStr"/>
       <c r="I488" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18324,7 +18404,7 @@
       </c>
       <c r="C489" t="inlineStr">
         <is>
-          <t>zero_shot_cot</t>
+          <t>self_refine</t>
         </is>
       </c>
       <c r="D489" t="inlineStr">
@@ -18333,16 +18413,20 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F489" t="n">
-        <v>0</v>
-      </c>
-      <c r="G489" t="inlineStr"/>
-      <c r="H489" t="inlineStr"/>
+        <v>5.4</v>
+      </c>
+      <c r="G489" t="n">
+        <v>-22.34110561274889</v>
+      </c>
+      <c r="H489" t="n">
+        <v>1.880219793050742e-40</v>
+      </c>
       <c r="I489" t="inlineStr">
         <is>
-          <t>No</t>
+          <t>Yes</t>
         </is>
       </c>
     </row>
@@ -18359,7 +18443,7 @@
       </c>
       <c r="C490" t="inlineStr">
         <is>
-          <t>self_refine</t>
+          <t>tree_of_thought</t>
         </is>
       </c>
       <c r="D490" t="inlineStr">
@@ -18368,16 +18452,16 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F490" t="n">
-        <v>2.2</v>
+        <v>6.11</v>
       </c>
       <c r="G490" t="n">
-        <v>-22.34110561274889</v>
+        <v>-19.88471453556187</v>
       </c>
       <c r="H490" t="n">
-        <v>1.880219793050742e-40</v>
+        <v>2.38480654894213e-36</v>
       </c>
       <c r="I490" t="inlineStr">
         <is>
@@ -18398,7 +18482,7 @@
       </c>
       <c r="C491" t="inlineStr">
         <is>
-          <t>tree_of_thought</t>
+          <t>zero_shot_cot</t>
         </is>
       </c>
       <c r="D491" t="inlineStr">
@@ -18407,16 +18491,18 @@
         </is>
       </c>
       <c r="E491" t="n">
+        <v>1</v>
+      </c>
+      <c r="F491" t="n">
+        <v>2</v>
+      </c>
+      <c r="G491" t="inlineStr">
+        <is>
+          <t>-inf</t>
+        </is>
+      </c>
+      <c r="H491" t="n">
         <v>0</v>
-      </c>
-      <c r="F491" t="n">
-        <v>5.11</v>
-      </c>
-      <c r="G491" t="n">
-        <v>-19.88471453556187</v>
-      </c>
-      <c r="H491" t="n">
-        <v>2.38480654894213e-36</v>
       </c>
       <c r="I491" t="inlineStr">
         <is>
@@ -24298,16 +24384,16 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>22.61366765260883</v>
+        <v>19.1058669794258</v>
       </c>
       <c r="F646" t="n">
-        <v>23.32084072897347</v>
+        <v>19.75593863231711</v>
       </c>
       <c r="G646" t="n">
-        <v>-1.104813744104458</v>
+        <v>-1.162755347846276</v>
       </c>
       <c r="H646" t="n">
-        <v>0.27191819299695</v>
+        <v>0.2477239472782931</v>
       </c>
       <c r="I646" t="inlineStr">
         <is>
@@ -24337,16 +24423,16 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.61366765260883</v>
+        <v>19.1058669794258</v>
       </c>
       <c r="F647" t="n">
-        <v>22.05413470835337</v>
+        <v>18.64404283313305</v>
       </c>
       <c r="G647" t="n">
-        <v>1.052503306293758</v>
+        <v>1.000981683230616</v>
       </c>
       <c r="H647" t="n">
-        <v>0.2951308631083701</v>
+        <v>0.3192760182593382</v>
       </c>
       <c r="I647" t="inlineStr">
         <is>
@@ -24376,16 +24462,16 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.61366765260883</v>
+        <v>19.1058669794258</v>
       </c>
       <c r="F648" t="n">
-        <v>20.94775786743356</v>
+        <v>17.60693821580896</v>
       </c>
       <c r="G648" t="n">
-        <v>3.979465408835954</v>
+        <v>4.075656134833133</v>
       </c>
       <c r="H648" t="n">
-        <v>0.0001317090985153442</v>
+        <v>9.271067799268673e-05</v>
       </c>
       <c r="I648" t="inlineStr">
         <is>
@@ -24415,16 +24501,16 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>22.61366765260883</v>
+        <v>19.1058669794258</v>
       </c>
       <c r="F649" t="n">
-        <v>21.15967533120474</v>
+        <v>17.80247921033215</v>
       </c>
       <c r="G649" t="n">
-        <v>3.705529981968572</v>
+        <v>3.814566083104667</v>
       </c>
       <c r="H649" t="n">
-        <v>0.0003476474918970133</v>
+        <v>0.0002374970308874316</v>
       </c>
       <c r="I649" t="inlineStr">
         <is>
@@ -24454,16 +24540,16 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>22.61366765260883</v>
+        <v>19.1058669794258</v>
       </c>
       <c r="F650" t="n">
-        <v>21.30110606060606</v>
+        <v>17.8461647935398</v>
       </c>
       <c r="G650" t="n">
-        <v>3.363496410695966</v>
+        <v>3.715197679247885</v>
       </c>
       <c r="H650" t="n">
-        <v>0.001095596013285775</v>
+        <v>0.0003361955128525203</v>
       </c>
       <c r="I650" t="inlineStr">
         <is>
@@ -24493,16 +24579,16 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>22.61366765260883</v>
+        <v>19.1058669794258</v>
       </c>
       <c r="F651" t="n">
-        <v>21.35750809438882</v>
+        <v>17.37580946488632</v>
       </c>
       <c r="G651" t="n">
-        <v>3.321373578099958</v>
+        <v>5.374383349862685</v>
       </c>
       <c r="H651" t="n">
-        <v>0.001255498983138217</v>
+        <v>5.116438987720422e-07</v>
       </c>
       <c r="I651" t="inlineStr">
         <is>
@@ -24532,16 +24618,16 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>22.61366765260883</v>
+        <v>19.1058669794258</v>
       </c>
       <c r="F652" t="n">
-        <v>24.865331526878</v>
+        <v>20.78059743471588</v>
       </c>
       <c r="G652" t="n">
-        <v>-5.417265966046467</v>
+        <v>-4.683987804542023</v>
       </c>
       <c r="H652" t="n">
-        <v>4.254504644815754e-07</v>
+        <v>8.97087602753729e-06</v>
       </c>
       <c r="I652" t="inlineStr">
         <is>
@@ -24788,16 +24874,16 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>18.35672871572872</v>
+        <v>16.4133777056277</v>
       </c>
       <c r="F660" t="n">
-        <v>18.25889344427502</v>
+        <v>16.08325531778164</v>
       </c>
       <c r="G660" t="n">
-        <v>0.2257952192652755</v>
+        <v>0.8284450201026073</v>
       </c>
       <c r="H660" t="n">
-        <v>0.8218261834386439</v>
+        <v>0.4094113132586084</v>
       </c>
       <c r="I660" t="inlineStr">
         <is>
@@ -24827,16 +24913,16 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>18.35672871572872</v>
+        <v>16.4133777056277</v>
       </c>
       <c r="F661" t="n">
-        <v>18.22262767787768</v>
+        <v>16.23610026085026</v>
       </c>
       <c r="G661" t="n">
-        <v>0.4024892677367463</v>
+        <v>0.5868329320228426</v>
       </c>
       <c r="H661" t="n">
-        <v>0.6881917346824865</v>
+        <v>0.5586517602819621</v>
       </c>
       <c r="I661" t="inlineStr">
         <is>
@@ -24866,16 +24952,16 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>18.35672871572872</v>
+        <v>16.4133777056277</v>
       </c>
       <c r="F662" t="n">
-        <v>15.05542068335898</v>
+        <v>13.14014422181743</v>
       </c>
       <c r="G662" t="n">
-        <v>11.75759143671778</v>
+        <v>12.59556417385856</v>
       </c>
       <c r="H662" t="n">
-        <v>1.695618504130053e-20</v>
+        <v>2.778272270383118e-22</v>
       </c>
       <c r="I662" t="inlineStr">
         <is>
@@ -24905,16 +24991,16 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>18.35672871572872</v>
+        <v>16.4133777056277</v>
       </c>
       <c r="F663" t="n">
-        <v>16.25559161517018</v>
+        <v>14.40215772406988</v>
       </c>
       <c r="G663" t="n">
-        <v>6.911007442088759</v>
+        <v>7.176600317236545</v>
       </c>
       <c r="H663" t="n">
-        <v>4.729892138221952e-10</v>
+        <v>1.328436419963163e-10</v>
       </c>
       <c r="I663" t="inlineStr">
         <is>
@@ -24944,16 +25030,16 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>18.35672871572872</v>
+        <v>16.4133777056277</v>
       </c>
       <c r="F664" t="n">
-        <v>16.43485019739574</v>
+        <v>14.62677465718387</v>
       </c>
       <c r="G664" t="n">
-        <v>5.817852016961354</v>
+        <v>5.828661989369855</v>
       </c>
       <c r="H664" t="n">
-        <v>7.347082369133956e-08</v>
+        <v>7.001515597858814e-08</v>
       </c>
       <c r="I664" t="inlineStr">
         <is>
@@ -24983,16 +25069,16 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>18.35672871572872</v>
+        <v>16.4133777056277</v>
       </c>
       <c r="F665" t="n">
-        <v>21.21212740290674</v>
+        <v>18.94168966869237</v>
       </c>
       <c r="G665" t="n">
-        <v>-7.839615469759146</v>
+        <v>-7.429772102273158</v>
       </c>
       <c r="H665" t="n">
-        <v>5.285455121601761e-12</v>
+        <v>3.910630755608332e-11</v>
       </c>
       <c r="I665" t="inlineStr">
         <is>
@@ -25022,16 +25108,16 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>18.35672871572872</v>
+        <v>16.4133777056277</v>
       </c>
       <c r="F666" t="n">
-        <v>17.52684221334221</v>
+        <v>15.37562427849928</v>
       </c>
       <c r="G666" t="n">
-        <v>2.014844489108059</v>
+        <v>2.738351571805377</v>
       </c>
       <c r="H666" t="n">
-        <v>0.04663257124271412</v>
+        <v>0.007323064869412894</v>
       </c>
       <c r="I666" t="inlineStr">
         <is>
@@ -25278,16 +25364,16 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>12.581</v>
+        <v>9.249000000000001</v>
       </c>
       <c r="F674" t="n">
-        <v>13.342</v>
+        <v>10.39633333333333</v>
       </c>
       <c r="G674" t="n">
-        <v>-22.34317810827821</v>
+        <v>-38.28897129671242</v>
       </c>
       <c r="H674" t="n">
-        <v>1.865837799169632e-40</v>
+        <v>3.730656685490866e-61</v>
       </c>
       <c r="I674" t="inlineStr">
         <is>
@@ -25317,16 +25403,16 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>12.581</v>
+        <v>9.249000000000001</v>
       </c>
       <c r="F675" t="n">
-        <v>18.28528528528529</v>
+        <v>15.46774774774775</v>
       </c>
       <c r="G675" t="n">
-        <v>-46.43675325856265</v>
+        <v>-55.54386537479321</v>
       </c>
       <c r="H675" t="n">
-        <v>5.154865415126227e-69</v>
+        <v>1.975629380725334e-76</v>
       </c>
       <c r="I675" t="inlineStr">
         <is>
@@ -25356,16 +25442,16 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>12.581</v>
+        <v>9.249000000000001</v>
       </c>
       <c r="F676" t="n">
-        <v>17.90147899159664</v>
+        <v>15.18010924369748</v>
       </c>
       <c r="G676" t="n">
-        <v>-43.69141151362562</v>
+        <v>-53.45208403293174</v>
       </c>
       <c r="H676" t="n">
-        <v>1.627680697316523e-66</v>
+        <v>7.824118341761889e-75</v>
       </c>
       <c r="I676" t="inlineStr">
         <is>
@@ -25395,16 +25481,16 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>12.581</v>
+        <v>9.249000000000001</v>
       </c>
       <c r="F677" t="n">
-        <v>17.11513227513228</v>
+        <v>14.47489417989418</v>
       </c>
       <c r="G677" t="n">
-        <v>-38.72545208980559</v>
+        <v>-49.14462767237107</v>
       </c>
       <c r="H677" t="n">
-        <v>1.302057520086244e-61</v>
+        <v>2.375590899694243e-71</v>
       </c>
       <c r="I677" t="inlineStr">
         <is>
@@ -25434,16 +25520,16 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>12.581</v>
+        <v>9.249000000000001</v>
       </c>
       <c r="F678" t="n">
-        <v>22.78857142857143</v>
+        <v>16.92071428571429</v>
       </c>
       <c r="G678" t="n">
-        <v>-25.9755287937918</v>
+        <v>-28.14743989487769</v>
       </c>
       <c r="H678" t="n">
-        <v>5.382013910054717e-46</v>
+        <v>4.856666438921173e-49</v>
       </c>
       <c r="I678" t="inlineStr">
         <is>
@@ -25473,16 +25559,16 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>12.581</v>
+        <v>9.249000000000001</v>
       </c>
       <c r="F679" t="n">
-        <v>20.74901515151516</v>
+        <v>14.77530303030303</v>
       </c>
       <c r="G679" t="n">
-        <v>-99.07442625961049</v>
+        <v>-73.10758486398029</v>
       </c>
       <c r="H679" t="n">
-        <v>7.467472989110106e-101</v>
+        <v>5.808135504918742e-88</v>
       </c>
       <c r="I679" t="inlineStr">
         <is>
@@ -25512,16 +25598,16 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>12.581</v>
+        <v>9.249000000000001</v>
       </c>
       <c r="F680" t="n">
-        <v>11.61466666666667</v>
+        <v>8.722999999999999</v>
       </c>
       <c r="G680" t="n">
-        <v>25.46056549255987</v>
+        <v>18.93853448984349</v>
       </c>
       <c r="H680" t="n">
-        <v>3.026138844455713e-45</v>
+        <v>1.100174375782855e-34</v>
       </c>
       <c r="I680" t="inlineStr">
         <is>
@@ -25768,16 +25854,16 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>10.095</v>
+        <v>8.647499999999999</v>
       </c>
       <c r="F688" t="n">
-        <v>11.26733333333333</v>
+        <v>9.894333333333332</v>
       </c>
       <c r="G688" t="n">
-        <v>-38.00049227878211</v>
+        <v>-42.53540961400277</v>
       </c>
       <c r="H688" t="n">
-        <v>7.523813471566928e-61</v>
+        <v>2.026425181306664e-65</v>
       </c>
       <c r="I688" t="inlineStr">
         <is>
@@ -25807,16 +25893,16 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>10.095</v>
+        <v>8.647499999999999</v>
       </c>
       <c r="F689" t="n">
-        <v>13.55895294117647</v>
+        <v>11.49540392156863</v>
       </c>
       <c r="G689" t="n">
-        <v>-27.75883887374171</v>
+        <v>-24.3905475777081</v>
       </c>
       <c r="H689" t="n">
-        <v>1.650082730703056e-48</v>
+        <v>1.189933294707286e-43</v>
       </c>
       <c r="I689" t="inlineStr">
         <is>
@@ -25846,16 +25932,16 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>10.095</v>
+        <v>8.647499999999999</v>
       </c>
       <c r="F690" t="n">
-        <v>13.56397317298797</v>
+        <v>11.58013876040703</v>
       </c>
       <c r="G690" t="n">
-        <v>-28.05897048788013</v>
+        <v>-25.35080814542259</v>
       </c>
       <c r="H690" t="n">
-        <v>6.408561315206937e-49</v>
+        <v>4.387109857418391e-45</v>
       </c>
       <c r="I690" t="inlineStr">
         <is>
@@ -25885,16 +25971,16 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>10.095</v>
+        <v>8.647499999999999</v>
       </c>
       <c r="F691" t="n">
-        <v>13.72882352941177</v>
+        <v>11.69336974789916</v>
       </c>
       <c r="G691" t="n">
-        <v>-30.64498494098692</v>
+        <v>-27.45012451731748</v>
       </c>
       <c r="H691" t="n">
-        <v>2.535866664593968e-52</v>
+        <v>4.401517005285405e-48</v>
       </c>
       <c r="I691" t="inlineStr">
         <is>
@@ -25924,16 +26010,16 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>10.095</v>
+        <v>8.647499999999999</v>
       </c>
       <c r="F692" t="n">
-        <v>13.54330627705628</v>
+        <v>11.66401875901876</v>
       </c>
       <c r="G692" t="n">
-        <v>-28.5688974062822</v>
+        <v>-28.09622079218814</v>
       </c>
       <c r="H692" t="n">
-        <v>1.308249919211199e-49</v>
+        <v>5.701910080054459e-49</v>
       </c>
       <c r="I692" t="inlineStr">
         <is>
@@ -25963,16 +26049,16 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>10.095</v>
+        <v>8.647499999999999</v>
       </c>
       <c r="F693" t="n">
-        <v>14.65551282051282</v>
+        <v>12.5599358974359</v>
       </c>
       <c r="G693" t="n">
-        <v>-53.57732691645629</v>
+        <v>-49.08641141363293</v>
       </c>
       <c r="H693" t="n">
-        <v>6.25375474721328e-75</v>
+        <v>2.659159496260932e-71</v>
       </c>
       <c r="I693" t="inlineStr">
         <is>
@@ -26002,16 +26088,16 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>10.095</v>
+        <v>8.647499999999999</v>
       </c>
       <c r="F694" t="n">
-        <v>9.593999999999999</v>
+        <v>8.221</v>
       </c>
       <c r="G694" t="n">
-        <v>17.40454967153083</v>
+        <v>15.72065397270649</v>
       </c>
       <c r="H694" t="n">
-        <v>6.952754269250642e-32</v>
+        <v>1.162833054748654e-28</v>
       </c>
       <c r="I694" t="inlineStr">
         <is>
